--- a/experience/异常类型.xlsx
+++ b/experience/异常类型.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
   <si>
     <t>类型</t>
   </si>
@@ -104,10 +104,10 @@
     <t>上报参数</t>
   </si>
   <si>
-    <t>HTTP</t>
-  </si>
-  <si>
-    <t>HTTP_502</t>
+    <t>HTTP[10]</t>
+  </si>
+  <si>
+    <t>HTTP_502[52]</t>
   </si>
   <si>
     <t>否</t>
@@ -125,7 +125,7 @@
     <t>request请求/响应对象</t>
   </si>
   <si>
-    <t>HTTP_500</t>
+    <t>HTTP_500[50]</t>
   </si>
   <si>
     <t>服务器内部异常</t>
@@ -137,7 +137,7 @@
     <t>服务器异常,请稍后重试</t>
   </si>
   <si>
-    <t>HTTP_404</t>
+    <t>HTTP_404[44]</t>
   </si>
   <si>
     <t>未找到接口</t>
@@ -152,7 +152,7 @@
     <t>uri,method,来源信息</t>
   </si>
   <si>
-    <t>HTTP_NONE</t>
+    <t>HTTP_NONE[00]</t>
   </si>
   <si>
     <t>是</t>
@@ -167,7 +167,7 @@
     <t>请打开WIFI或数据连接</t>
   </si>
   <si>
-    <t>HTTP_FAIL</t>
+    <t>HTTP_FAIL[01]</t>
   </si>
   <si>
     <t>网络超时连接失败</t>
@@ -182,7 +182,7 @@
     <t>request请求对象</t>
   </si>
   <si>
-    <t>HTTP_ABORT</t>
+    <t>HTTP_ABORT[02]</t>
   </si>
   <si>
     <t>主动撤消请求</t>
@@ -191,10 +191,16 @@
     <t>主动触发</t>
   </si>
   <si>
-    <t>CLIENT</t>
-  </si>
-  <si>
-    <t>CLIENT_REQUEST</t>
+    <t>HTTP_OTHER[03]</t>
+  </si>
+  <si>
+    <t>未知异常</t>
+  </si>
+  <si>
+    <t>CLIENT[20]</t>
+  </si>
+  <si>
+    <t>CLIENT_REQUEST[00]</t>
   </si>
   <si>
     <t>AJAX请求相关异常</t>
@@ -206,7 +212,7 @@
     <t>request对象</t>
   </si>
   <si>
-    <t>CLIENT_CATCH</t>
+    <t>CLIENT_CATCH[01]</t>
   </si>
   <si>
     <t>逻辑代码异常</t>
@@ -215,37 +221,37 @@
     <t>本地代码报错</t>
   </si>
   <si>
-    <t>CLINET_UNKOWN</t>
+    <t>NATIVE[30]</t>
+  </si>
+  <si>
+    <t>NATIVE_INTERFACE[00]</t>
+  </si>
+  <si>
+    <t>本地接口异常</t>
+  </si>
+  <si>
+    <t>系统层面的bug</t>
+  </si>
+  <si>
+    <t>接口名称及所有参数</t>
+  </si>
+  <si>
+    <t>NATVIE_USER[01]</t>
+  </si>
+  <si>
+    <t>用户设置异常</t>
+  </si>
+  <si>
+    <t>用户设置出错</t>
+  </si>
+  <si>
+    <t>OTHER[40]</t>
+  </si>
+  <si>
+    <t>UNCATCH_GLOBAL[00]</t>
   </si>
   <si>
     <t>全局未捕获异常</t>
-  </si>
-  <si>
-    <t>本地代码报错,但未被捕获住</t>
-  </si>
-  <si>
-    <t>NATIVE</t>
-  </si>
-  <si>
-    <t>NATIVE_INTERFACE</t>
-  </si>
-  <si>
-    <t>本地接口异常</t>
-  </si>
-  <si>
-    <t>系统层面的bug</t>
-  </si>
-  <si>
-    <t>接口名称及所有参数</t>
-  </si>
-  <si>
-    <t>OTHER</t>
-  </si>
-  <si>
-    <t>OTHER_UNCATCH</t>
-  </si>
-  <si>
-    <t>其他未捕获异常</t>
   </si>
   <si>
     <t>未知情况下的</t>
@@ -280,12 +286,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,14 +309,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,6 +324,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,14 +360,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,6 +389,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -369,17 +413,26 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -392,14 +445,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -407,52 +452,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -473,187 +472,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,6 +675,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -683,21 +697,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,6 +725,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -749,172 +763,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -922,9 +921,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1275,23 +1271,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="24" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="21.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="11" style="2" customWidth="1"/>
     <col min="7" max="7" width="27.75" style="2" customWidth="1"/>
     <col min="8" max="8" width="11" style="2" customWidth="1"/>
@@ -1302,31 +1298,31 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1480,67 +1476,61 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="2" t="s">
+    <row r="8" customHeight="1" spans="2:6">
+      <c r="B8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:9">
+      <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="H8" s="2">
-        <v>3</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="2:8">
-      <c r="B9" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="2">
-        <v>3</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:8">
       <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F10" s="2">
         <v>3</v>
@@ -1551,19 +1541,19 @@
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F11" s="2">
         <v>3</v>
@@ -1572,84 +1562,105 @@
         <v>3</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="2:8">
+      <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:8">
-      <c r="A12" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="D13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="2">
         <v>3</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H13" s="2">
         <v>2</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="11:11">
-      <c r="K13" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="11:11">
       <c r="K14" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="11:11">
       <c r="K15" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="11:11">
       <c r="K16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="11:11">
       <c r="K17" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="11:11">
       <c r="K18" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="11:11">
       <c r="K19" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="11:11">
       <c r="K20" s="2" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="11:11">
       <c r="K21" s="2" t="s">
-        <v>65</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="11:11">
+      <c r="K22" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A10"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F15 F16:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8 F11 F12 F1:F7 F9:F10 F13:F16 F17:F1048576">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
   </dataValidations>
